--- a/要件定義書.xlsx
+++ b/要件定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buyodomap-my.sharepoint.com/personal/minoru_fukakusa_buyodo_co_jp/Documents/技術グループ/10_WEBGIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{4BF36F23-EF4C-4101-92F7-E9C32B9F12A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41944EEA-1ECB-45C2-B679-CAB105E60C1F}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{4BF36F23-EF4C-4101-92F7-E9C32B9F12A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E530385A-4926-4075-9117-722B8004EF73}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" tabRatio="913" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="240" windowWidth="23745" windowHeight="15960" tabRatio="913" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0表紙" sheetId="34" r:id="rId1"/>
@@ -6043,6 +6043,39 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6052,31 +6085,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6213,15 +6222,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -10347,6 +10347,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -10646,7 +10650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT84"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:AE10"/>
     </sheetView>
   </sheetViews>
@@ -11989,7 +11993,7 @@
   </sheetPr>
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
@@ -12084,16 +12088,16 @@
     </row>
     <row r="4" spans="1:55">
       <c r="A4" s="51"/>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="221" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="174" t="s">
         <v>207</v>
       </c>
@@ -12109,31 +12113,31 @@
       <c r="T4" s="174"/>
       <c r="U4" s="174"/>
       <c r="V4" s="174"/>
-      <c r="W4" s="224" t="s">
+      <c r="W4" s="221" t="s">
         <v>208</v>
       </c>
-      <c r="X4" s="225"/>
-      <c r="Y4" s="225"/>
-      <c r="Z4" s="225"/>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="225"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="225"/>
-      <c r="AE4" s="225"/>
-      <c r="AF4" s="225"/>
-      <c r="AG4" s="225"/>
-      <c r="AH4" s="225"/>
-      <c r="AI4" s="225"/>
-      <c r="AJ4" s="225"/>
-      <c r="AK4" s="225"/>
-      <c r="AL4" s="225"/>
-      <c r="AM4" s="225"/>
-      <c r="AN4" s="225"/>
-      <c r="AO4" s="225"/>
-      <c r="AP4" s="225"/>
-      <c r="AQ4" s="225"/>
-      <c r="AR4" s="225"/>
-      <c r="AS4" s="226"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="222"/>
+      <c r="Z4" s="222"/>
+      <c r="AA4" s="222"/>
+      <c r="AB4" s="222"/>
+      <c r="AC4" s="222"/>
+      <c r="AD4" s="222"/>
+      <c r="AE4" s="222"/>
+      <c r="AF4" s="222"/>
+      <c r="AG4" s="222"/>
+      <c r="AH4" s="222"/>
+      <c r="AI4" s="222"/>
+      <c r="AJ4" s="222"/>
+      <c r="AK4" s="222"/>
+      <c r="AL4" s="222"/>
+      <c r="AM4" s="222"/>
+      <c r="AN4" s="222"/>
+      <c r="AO4" s="222"/>
+      <c r="AP4" s="222"/>
+      <c r="AQ4" s="222"/>
+      <c r="AR4" s="222"/>
+      <c r="AS4" s="235"/>
       <c r="AT4" s="174" t="s">
         <v>209</v>
       </c>
@@ -12148,16 +12152,16 @@
     </row>
     <row r="5" spans="1:55">
       <c r="A5" s="51"/>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="223" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
       <c r="J5" s="152">
         <v>1</v>
       </c>
@@ -12214,14 +12218,14 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="51"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
       <c r="J6" s="152">
         <v>2</v>
       </c>
@@ -12278,16 +12282,16 @@
     </row>
     <row r="7" spans="1:55">
       <c r="A7" s="51"/>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="228"/>
-      <c r="I7" s="229"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="227"/>
       <c r="J7" s="152">
         <v>3</v>
       </c>
@@ -12344,14 +12348,14 @@
     </row>
     <row r="8" spans="1:55">
       <c r="A8" s="51"/>
-      <c r="B8" s="278"/>
-      <c r="C8" s="279"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="280"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="230"/>
       <c r="J8" s="152">
         <v>4</v>
       </c>
@@ -12408,14 +12412,14 @@
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="51"/>
-      <c r="B9" s="278"/>
-      <c r="C9" s="279"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="280"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
       <c r="J9" s="152">
         <v>5</v>
       </c>
@@ -12472,14 +12476,14 @@
     </row>
     <row r="10" spans="1:55">
       <c r="A10" s="51"/>
-      <c r="B10" s="278"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
       <c r="J10" s="152">
         <v>6</v>
       </c>
@@ -12536,14 +12540,14 @@
     </row>
     <row r="11" spans="1:55">
       <c r="A11" s="51"/>
-      <c r="B11" s="278"/>
-      <c r="C11" s="279"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="279"/>
-      <c r="I11" s="280"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
       <c r="J11" s="152">
         <v>7</v>
       </c>
@@ -12600,14 +12604,14 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="51"/>
-      <c r="B12" s="278"/>
-      <c r="C12" s="279"/>
-      <c r="D12" s="279"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="279"/>
-      <c r="I12" s="280"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="229"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
       <c r="J12" s="152">
         <v>8</v>
       </c>
@@ -12664,14 +12668,14 @@
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="51"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="279"/>
-      <c r="I13" s="280"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="229"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="230"/>
       <c r="J13" s="152">
         <v>9</v>
       </c>
@@ -12728,14 +12732,14 @@
     </row>
     <row r="14" spans="1:55" ht="30" customHeight="1">
       <c r="A14" s="51"/>
-      <c r="B14" s="278"/>
-      <c r="C14" s="279"/>
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="280"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="229"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="230"/>
       <c r="J14" s="152">
         <v>10</v>
       </c>
@@ -12792,14 +12796,14 @@
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="51"/>
-      <c r="B15" s="278"/>
-      <c r="C15" s="279"/>
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="280"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="230"/>
       <c r="J15" s="152">
         <v>11</v>
       </c>
@@ -12856,14 +12860,14 @@
     </row>
     <row r="16" spans="1:55">
       <c r="A16" s="51"/>
-      <c r="B16" s="278"/>
-      <c r="C16" s="279"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="280"/>
+      <c r="B16" s="228"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="229"/>
+      <c r="G16" s="229"/>
+      <c r="H16" s="229"/>
+      <c r="I16" s="230"/>
       <c r="J16" s="152">
         <v>12</v>
       </c>
@@ -12920,31 +12924,31 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" s="51"/>
-      <c r="B17" s="278"/>
-      <c r="C17" s="279"/>
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="279"/>
-      <c r="I17" s="280"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="230"/>
       <c r="J17" s="152">
         <v>13</v>
       </c>
-      <c r="K17" s="221" t="s">
+      <c r="K17" s="232" t="s">
         <v>239</v>
       </c>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="222"/>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="223"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="233"/>
+      <c r="S17" s="233"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="234"/>
       <c r="W17" s="196" t="s">
         <v>240</v>
       </c>
@@ -12984,31 +12988,31 @@
     </row>
     <row r="18" spans="1:55">
       <c r="A18" s="51"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="279"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="280"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="230"/>
       <c r="J18" s="152">
         <v>14</v>
       </c>
-      <c r="K18" s="221" t="s">
+      <c r="K18" s="232" t="s">
         <v>241</v>
       </c>
-      <c r="L18" s="222"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="222"/>
-      <c r="O18" s="222"/>
-      <c r="P18" s="222"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="223"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="233"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="233"/>
+      <c r="V18" s="234"/>
       <c r="W18" s="196" t="s">
         <v>242</v>
       </c>
@@ -13048,56 +13052,56 @@
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="51"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="232"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="231"/>
       <c r="J19" s="152">
         <v>15</v>
       </c>
-      <c r="K19" s="221" t="s">
+      <c r="K19" s="232" t="s">
         <v>243</v>
       </c>
-      <c r="L19" s="222"/>
-      <c r="M19" s="222"/>
-      <c r="N19" s="222"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="223"/>
-      <c r="W19" s="221" t="s">
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="234"/>
+      <c r="W19" s="232" t="s">
         <v>244</v>
       </c>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="222"/>
-      <c r="AF19" s="222"/>
-      <c r="AG19" s="222"/>
-      <c r="AH19" s="222"/>
-      <c r="AI19" s="222"/>
-      <c r="AJ19" s="222"/>
-      <c r="AK19" s="222"/>
-      <c r="AL19" s="222"/>
-      <c r="AM19" s="222"/>
-      <c r="AN19" s="222"/>
-      <c r="AO19" s="222"/>
-      <c r="AP19" s="222"/>
-      <c r="AQ19" s="222"/>
-      <c r="AR19" s="222"/>
-      <c r="AS19" s="223"/>
+      <c r="X19" s="233"/>
+      <c r="Y19" s="233"/>
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="233"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="233"/>
+      <c r="AD19" s="233"/>
+      <c r="AE19" s="233"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="233"/>
+      <c r="AH19" s="233"/>
+      <c r="AI19" s="233"/>
+      <c r="AJ19" s="233"/>
+      <c r="AK19" s="233"/>
+      <c r="AL19" s="233"/>
+      <c r="AM19" s="233"/>
+      <c r="AN19" s="233"/>
+      <c r="AO19" s="233"/>
+      <c r="AP19" s="233"/>
+      <c r="AQ19" s="233"/>
+      <c r="AR19" s="233"/>
+      <c r="AS19" s="234"/>
       <c r="AT19" s="176" t="s">
         <v>216</v>
       </c>
@@ -13453,7 +13457,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13518,233 +13523,233 @@
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="112"/>
-      <c r="B5" s="224" t="s">
+      <c r="B5" s="221" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="224" t="s">
+      <c r="F5" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="226"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="235"/>
       <c r="M5" s="113"/>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1">
       <c r="A6" s="112"/>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="236" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="236" t="s">
+      <c r="F6" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="238"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="241"/>
       <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1">
       <c r="A7" s="112"/>
-      <c r="B7" s="233" t="s">
+      <c r="B7" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="235"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="140" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="236" t="s">
+      <c r="F7" s="239" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="238"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
       <c r="M7" s="113"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1">
       <c r="A8" s="112"/>
-      <c r="B8" s="233" t="s">
+      <c r="B8" s="236" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="239" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="238"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="241"/>
       <c r="M8" s="113"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1">
       <c r="A9" s="112"/>
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="236" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="234"/>
-      <c r="D9" s="235"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="238"/>
       <c r="E9" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="239" t="s">
+      <c r="F9" s="242" t="s">
         <v>260</v>
       </c>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="241"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="244"/>
       <c r="M9" s="113"/>
     </row>
     <row r="10" spans="1:13" ht="32.25" customHeight="1">
       <c r="A10" s="112"/>
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="236" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="238"/>
       <c r="E10" s="140" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="236" t="s">
+      <c r="F10" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="238"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="240"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="241"/>
       <c r="M10" s="113"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1">
       <c r="A11" s="112"/>
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="236" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="235"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="238"/>
       <c r="E11" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="236" t="s">
+      <c r="F11" s="239" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="238"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="241"/>
       <c r="M11" s="113"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
       <c r="A12" s="112"/>
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="236" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="234"/>
-      <c r="D12" s="235"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="238"/>
       <c r="E12" s="140" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="239" t="s">
+      <c r="F12" s="242" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="241"/>
+      <c r="G12" s="243"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="244"/>
       <c r="M12" s="113"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
       <c r="A13" s="112"/>
-      <c r="B13" s="233" t="s">
+      <c r="B13" s="236" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="235"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="236" t="s">
+      <c r="F13" s="239" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="238"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="241"/>
       <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1">
       <c r="A14" s="112"/>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="235"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="238"/>
       <c r="E14" s="140" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="239" t="s">
+      <c r="F14" s="242" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="241"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="244"/>
       <c r="M14" s="113"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1">
       <c r="A15" s="112"/>
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="236" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="234"/>
-      <c r="D15" s="235"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="238"/>
       <c r="E15" s="140" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="239" t="s">
+      <c r="F15" s="242" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="241"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="244"/>
       <c r="M15" s="113"/>
     </row>
     <row r="16" spans="1:13">
@@ -13959,64 +13964,64 @@
     </row>
     <row r="5" spans="1:62" ht="39.75" customHeight="1">
       <c r="A5" s="51"/>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="253" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="224" t="s">
+      <c r="C5" s="253"/>
+      <c r="D5" s="221" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="226"/>
-      <c r="S5" s="251" t="s">
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="222"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="222"/>
+      <c r="O5" s="222"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="222"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="254" t="s">
         <v>208</v>
       </c>
-      <c r="T5" s="252"/>
-      <c r="U5" s="252"/>
-      <c r="V5" s="252"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="252"/>
-      <c r="Y5" s="252"/>
-      <c r="Z5" s="252"/>
-      <c r="AA5" s="252"/>
-      <c r="AB5" s="252"/>
-      <c r="AC5" s="252"/>
-      <c r="AD5" s="252"/>
-      <c r="AE5" s="252"/>
-      <c r="AF5" s="252"/>
-      <c r="AG5" s="252"/>
-      <c r="AH5" s="252"/>
-      <c r="AI5" s="252"/>
-      <c r="AJ5" s="252"/>
-      <c r="AK5" s="252"/>
-      <c r="AL5" s="252"/>
-      <c r="AM5" s="252"/>
-      <c r="AN5" s="252"/>
-      <c r="AO5" s="252"/>
-      <c r="AP5" s="252"/>
-      <c r="AQ5" s="252"/>
-      <c r="AR5" s="253"/>
-      <c r="AS5" s="246" t="s">
+      <c r="T5" s="255"/>
+      <c r="U5" s="255"/>
+      <c r="V5" s="255"/>
+      <c r="W5" s="255"/>
+      <c r="X5" s="255"/>
+      <c r="Y5" s="255"/>
+      <c r="Z5" s="255"/>
+      <c r="AA5" s="255"/>
+      <c r="AB5" s="255"/>
+      <c r="AC5" s="255"/>
+      <c r="AD5" s="255"/>
+      <c r="AE5" s="255"/>
+      <c r="AF5" s="255"/>
+      <c r="AG5" s="255"/>
+      <c r="AH5" s="255"/>
+      <c r="AI5" s="255"/>
+      <c r="AJ5" s="255"/>
+      <c r="AK5" s="255"/>
+      <c r="AL5" s="255"/>
+      <c r="AM5" s="255"/>
+      <c r="AN5" s="255"/>
+      <c r="AO5" s="255"/>
+      <c r="AP5" s="255"/>
+      <c r="AQ5" s="255"/>
+      <c r="AR5" s="256"/>
+      <c r="AS5" s="249" t="s">
         <v>282</v>
       </c>
-      <c r="AT5" s="246"/>
-      <c r="AU5" s="246"/>
-      <c r="AV5" s="246"/>
-      <c r="AW5" s="246"/>
-      <c r="AX5" s="246"/>
-      <c r="AY5" s="246"/>
+      <c r="AT5" s="249"/>
+      <c r="AU5" s="249"/>
+      <c r="AV5" s="249"/>
+      <c r="AW5" s="249"/>
+      <c r="AX5" s="249"/>
+      <c r="AY5" s="249"/>
       <c r="AZ5" s="174"/>
       <c r="BA5" s="174"/>
       <c r="BB5" s="174"/>
@@ -14029,10 +14034,10 @@
     </row>
     <row r="6" spans="1:62" ht="36.75" customHeight="1">
       <c r="A6" s="51"/>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="248" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="245"/>
+      <c r="C6" s="248"/>
       <c r="D6" s="181" t="s">
         <v>284</v>
       </c>
@@ -14050,34 +14055,34 @@
       <c r="P6" s="182"/>
       <c r="Q6" s="182"/>
       <c r="R6" s="183"/>
-      <c r="S6" s="254" t="s">
+      <c r="S6" s="257" t="s">
         <v>285</v>
       </c>
-      <c r="T6" s="255"/>
-      <c r="U6" s="255"/>
-      <c r="V6" s="255"/>
-      <c r="W6" s="255"/>
-      <c r="X6" s="255"/>
-      <c r="Y6" s="255"/>
-      <c r="Z6" s="255"/>
-      <c r="AA6" s="255"/>
-      <c r="AB6" s="255"/>
-      <c r="AC6" s="255"/>
-      <c r="AD6" s="255"/>
-      <c r="AE6" s="255"/>
-      <c r="AF6" s="255"/>
-      <c r="AG6" s="255"/>
-      <c r="AH6" s="255"/>
-      <c r="AI6" s="255"/>
-      <c r="AJ6" s="255"/>
-      <c r="AK6" s="255"/>
-      <c r="AL6" s="255"/>
-      <c r="AM6" s="255"/>
-      <c r="AN6" s="255"/>
-      <c r="AO6" s="255"/>
-      <c r="AP6" s="255"/>
-      <c r="AQ6" s="255"/>
-      <c r="AR6" s="256"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="258"/>
+      <c r="W6" s="258"/>
+      <c r="X6" s="258"/>
+      <c r="Y6" s="258"/>
+      <c r="Z6" s="258"/>
+      <c r="AA6" s="258"/>
+      <c r="AB6" s="258"/>
+      <c r="AC6" s="258"/>
+      <c r="AD6" s="258"/>
+      <c r="AE6" s="258"/>
+      <c r="AF6" s="258"/>
+      <c r="AG6" s="258"/>
+      <c r="AH6" s="258"/>
+      <c r="AI6" s="258"/>
+      <c r="AJ6" s="258"/>
+      <c r="AK6" s="258"/>
+      <c r="AL6" s="258"/>
+      <c r="AM6" s="258"/>
+      <c r="AN6" s="258"/>
+      <c r="AO6" s="258"/>
+      <c r="AP6" s="258"/>
+      <c r="AQ6" s="258"/>
+      <c r="AR6" s="259"/>
       <c r="AS6" s="176" t="s">
         <v>286</v>
       </c>
@@ -14099,8 +14104,8 @@
     </row>
     <row r="7" spans="1:62" ht="30" customHeight="1">
       <c r="A7" s="51"/>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="181" t="s">
         <v>287</v>
       </c>
@@ -14118,34 +14123,34 @@
       <c r="P7" s="182"/>
       <c r="Q7" s="182"/>
       <c r="R7" s="183"/>
-      <c r="S7" s="242" t="s">
+      <c r="S7" s="245" t="s">
         <v>288</v>
       </c>
-      <c r="T7" s="243"/>
-      <c r="U7" s="243"/>
-      <c r="V7" s="243"/>
-      <c r="W7" s="243"/>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="243"/>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="243"/>
-      <c r="AD7" s="243"/>
-      <c r="AE7" s="243"/>
-      <c r="AF7" s="243"/>
-      <c r="AG7" s="243"/>
-      <c r="AH7" s="243"/>
-      <c r="AI7" s="243"/>
-      <c r="AJ7" s="243"/>
-      <c r="AK7" s="243"/>
-      <c r="AL7" s="243"/>
-      <c r="AM7" s="243"/>
-      <c r="AN7" s="243"/>
-      <c r="AO7" s="243"/>
-      <c r="AP7" s="243"/>
-      <c r="AQ7" s="243"/>
-      <c r="AR7" s="244"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="246"/>
+      <c r="V7" s="246"/>
+      <c r="W7" s="246"/>
+      <c r="X7" s="246"/>
+      <c r="Y7" s="246"/>
+      <c r="Z7" s="246"/>
+      <c r="AA7" s="246"/>
+      <c r="AB7" s="246"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="246"/>
+      <c r="AE7" s="246"/>
+      <c r="AF7" s="246"/>
+      <c r="AG7" s="246"/>
+      <c r="AH7" s="246"/>
+      <c r="AI7" s="246"/>
+      <c r="AJ7" s="246"/>
+      <c r="AK7" s="246"/>
+      <c r="AL7" s="246"/>
+      <c r="AM7" s="246"/>
+      <c r="AN7" s="246"/>
+      <c r="AO7" s="246"/>
+      <c r="AP7" s="246"/>
+      <c r="AQ7" s="246"/>
+      <c r="AR7" s="247"/>
       <c r="AS7" s="176" t="s">
         <v>289</v>
       </c>
@@ -14167,8 +14172,8 @@
     </row>
     <row r="8" spans="1:62" ht="30" customHeight="1">
       <c r="A8" s="51"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="181" t="s">
         <v>290</v>
       </c>
@@ -14186,34 +14191,34 @@
       <c r="P8" s="182"/>
       <c r="Q8" s="182"/>
       <c r="R8" s="183"/>
-      <c r="S8" s="242" t="s">
+      <c r="S8" s="245" t="s">
         <v>291</v>
       </c>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="243"/>
-      <c r="Y8" s="243"/>
-      <c r="Z8" s="243"/>
-      <c r="AA8" s="243"/>
-      <c r="AB8" s="243"/>
-      <c r="AC8" s="243"/>
-      <c r="AD8" s="243"/>
-      <c r="AE8" s="243"/>
-      <c r="AF8" s="243"/>
-      <c r="AG8" s="243"/>
-      <c r="AH8" s="243"/>
-      <c r="AI8" s="243"/>
-      <c r="AJ8" s="243"/>
-      <c r="AK8" s="243"/>
-      <c r="AL8" s="243"/>
-      <c r="AM8" s="243"/>
-      <c r="AN8" s="243"/>
-      <c r="AO8" s="243"/>
-      <c r="AP8" s="243"/>
-      <c r="AQ8" s="243"/>
-      <c r="AR8" s="244"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="246"/>
+      <c r="AG8" s="246"/>
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="246"/>
+      <c r="AL8" s="246"/>
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="246"/>
+      <c r="AQ8" s="246"/>
+      <c r="AR8" s="247"/>
       <c r="AS8" s="176" t="s">
         <v>292</v>
       </c>
@@ -14235,8 +14240,8 @@
     </row>
     <row r="9" spans="1:62" ht="30" customHeight="1">
       <c r="A9" s="51"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
       <c r="D9" s="181" t="s">
         <v>293</v>
       </c>
@@ -14254,34 +14259,34 @@
       <c r="P9" s="182"/>
       <c r="Q9" s="182"/>
       <c r="R9" s="183"/>
-      <c r="S9" s="242" t="s">
+      <c r="S9" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="243"/>
-      <c r="X9" s="243"/>
-      <c r="Y9" s="243"/>
-      <c r="Z9" s="243"/>
-      <c r="AA9" s="243"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="243"/>
-      <c r="AD9" s="243"/>
-      <c r="AE9" s="243"/>
-      <c r="AF9" s="243"/>
-      <c r="AG9" s="243"/>
-      <c r="AH9" s="243"/>
-      <c r="AI9" s="243"/>
-      <c r="AJ9" s="243"/>
-      <c r="AK9" s="243"/>
-      <c r="AL9" s="243"/>
-      <c r="AM9" s="243"/>
-      <c r="AN9" s="243"/>
-      <c r="AO9" s="243"/>
-      <c r="AP9" s="243"/>
-      <c r="AQ9" s="243"/>
-      <c r="AR9" s="244"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
+      <c r="AI9" s="246"/>
+      <c r="AJ9" s="246"/>
+      <c r="AK9" s="246"/>
+      <c r="AL9" s="246"/>
+      <c r="AM9" s="246"/>
+      <c r="AN9" s="246"/>
+      <c r="AO9" s="246"/>
+      <c r="AP9" s="246"/>
+      <c r="AQ9" s="246"/>
+      <c r="AR9" s="247"/>
       <c r="AS9" s="176" t="s">
         <v>295</v>
       </c>
@@ -14303,8 +14308,8 @@
     </row>
     <row r="10" spans="1:62" ht="30" customHeight="1">
       <c r="A10" s="51"/>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
       <c r="D10" s="181" t="s">
         <v>296</v>
       </c>
@@ -14322,34 +14327,34 @@
       <c r="P10" s="182"/>
       <c r="Q10" s="182"/>
       <c r="R10" s="183"/>
-      <c r="S10" s="247" t="s">
+      <c r="S10" s="250" t="s">
         <v>297</v>
       </c>
-      <c r="T10" s="248"/>
-      <c r="U10" s="248"/>
-      <c r="V10" s="248"/>
-      <c r="W10" s="248"/>
-      <c r="X10" s="248"/>
-      <c r="Y10" s="248"/>
-      <c r="Z10" s="248"/>
-      <c r="AA10" s="248"/>
-      <c r="AB10" s="248"/>
-      <c r="AC10" s="248"/>
-      <c r="AD10" s="248"/>
-      <c r="AE10" s="248"/>
-      <c r="AF10" s="248"/>
-      <c r="AG10" s="248"/>
-      <c r="AH10" s="248"/>
-      <c r="AI10" s="248"/>
-      <c r="AJ10" s="248"/>
-      <c r="AK10" s="248"/>
-      <c r="AL10" s="248"/>
-      <c r="AM10" s="248"/>
-      <c r="AN10" s="248"/>
-      <c r="AO10" s="248"/>
-      <c r="AP10" s="248"/>
-      <c r="AQ10" s="248"/>
-      <c r="AR10" s="249"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="251"/>
+      <c r="W10" s="251"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="251"/>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="251"/>
+      <c r="AC10" s="251"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="251"/>
+      <c r="AF10" s="251"/>
+      <c r="AG10" s="251"/>
+      <c r="AH10" s="251"/>
+      <c r="AI10" s="251"/>
+      <c r="AJ10" s="251"/>
+      <c r="AK10" s="251"/>
+      <c r="AL10" s="251"/>
+      <c r="AM10" s="251"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="251"/>
+      <c r="AR10" s="252"/>
       <c r="AS10" s="176" t="s">
         <v>292</v>
       </c>
@@ -14371,10 +14376,10 @@
     </row>
     <row r="11" spans="1:62" ht="30" customHeight="1">
       <c r="A11" s="51"/>
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="248" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="245"/>
+      <c r="C11" s="248"/>
       <c r="D11" s="181" t="s">
         <v>299</v>
       </c>
@@ -14392,34 +14397,34 @@
       <c r="P11" s="182"/>
       <c r="Q11" s="182"/>
       <c r="R11" s="183"/>
-      <c r="S11" s="242" t="s">
+      <c r="S11" s="245" t="s">
         <v>300</v>
       </c>
-      <c r="T11" s="243"/>
-      <c r="U11" s="243"/>
-      <c r="V11" s="243"/>
-      <c r="W11" s="243"/>
-      <c r="X11" s="243"/>
-      <c r="Y11" s="243"/>
-      <c r="Z11" s="243"/>
-      <c r="AA11" s="243"/>
-      <c r="AB11" s="243"/>
-      <c r="AC11" s="243"/>
-      <c r="AD11" s="243"/>
-      <c r="AE11" s="243"/>
-      <c r="AF11" s="243"/>
-      <c r="AG11" s="243"/>
-      <c r="AH11" s="243"/>
-      <c r="AI11" s="243"/>
-      <c r="AJ11" s="243"/>
-      <c r="AK11" s="243"/>
-      <c r="AL11" s="243"/>
-      <c r="AM11" s="243"/>
-      <c r="AN11" s="243"/>
-      <c r="AO11" s="243"/>
-      <c r="AP11" s="243"/>
-      <c r="AQ11" s="243"/>
-      <c r="AR11" s="244"/>
+      <c r="T11" s="246"/>
+      <c r="U11" s="246"/>
+      <c r="V11" s="246"/>
+      <c r="W11" s="246"/>
+      <c r="X11" s="246"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="246"/>
+      <c r="AA11" s="246"/>
+      <c r="AB11" s="246"/>
+      <c r="AC11" s="246"/>
+      <c r="AD11" s="246"/>
+      <c r="AE11" s="246"/>
+      <c r="AF11" s="246"/>
+      <c r="AG11" s="246"/>
+      <c r="AH11" s="246"/>
+      <c r="AI11" s="246"/>
+      <c r="AJ11" s="246"/>
+      <c r="AK11" s="246"/>
+      <c r="AL11" s="246"/>
+      <c r="AM11" s="246"/>
+      <c r="AN11" s="246"/>
+      <c r="AO11" s="246"/>
+      <c r="AP11" s="246"/>
+      <c r="AQ11" s="246"/>
+      <c r="AR11" s="247"/>
       <c r="AS11" s="176" t="s">
         <v>301</v>
       </c>
@@ -14441,8 +14446,8 @@
     </row>
     <row r="12" spans="1:62" ht="30" customHeight="1">
       <c r="A12" s="51"/>
-      <c r="B12" s="245"/>
-      <c r="C12" s="245"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="248"/>
       <c r="D12" s="181" t="s">
         <v>302</v>
       </c>
@@ -14460,34 +14465,34 @@
       <c r="P12" s="182"/>
       <c r="Q12" s="182"/>
       <c r="R12" s="183"/>
-      <c r="S12" s="242" t="s">
+      <c r="S12" s="245" t="s">
         <v>303</v>
       </c>
-      <c r="T12" s="243"/>
-      <c r="U12" s="243"/>
-      <c r="V12" s="243"/>
-      <c r="W12" s="243"/>
-      <c r="X12" s="243"/>
-      <c r="Y12" s="243"/>
-      <c r="Z12" s="243"/>
-      <c r="AA12" s="243"/>
-      <c r="AB12" s="243"/>
-      <c r="AC12" s="243"/>
-      <c r="AD12" s="243"/>
-      <c r="AE12" s="243"/>
-      <c r="AF12" s="243"/>
-      <c r="AG12" s="243"/>
-      <c r="AH12" s="243"/>
-      <c r="AI12" s="243"/>
-      <c r="AJ12" s="243"/>
-      <c r="AK12" s="243"/>
-      <c r="AL12" s="243"/>
-      <c r="AM12" s="243"/>
-      <c r="AN12" s="243"/>
-      <c r="AO12" s="243"/>
-      <c r="AP12" s="243"/>
-      <c r="AQ12" s="243"/>
-      <c r="AR12" s="244"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="246"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="246"/>
+      <c r="AH12" s="246"/>
+      <c r="AI12" s="246"/>
+      <c r="AJ12" s="246"/>
+      <c r="AK12" s="246"/>
+      <c r="AL12" s="246"/>
+      <c r="AM12" s="246"/>
+      <c r="AN12" s="246"/>
+      <c r="AO12" s="246"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="246"/>
+      <c r="AR12" s="247"/>
       <c r="AS12" s="176" t="s">
         <v>301</v>
       </c>
@@ -14509,8 +14514,8 @@
     </row>
     <row r="13" spans="1:62" ht="30" customHeight="1">
       <c r="A13" s="51"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="245"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="248"/>
       <c r="D13" s="181" t="s">
         <v>304</v>
       </c>
@@ -14528,34 +14533,34 @@
       <c r="P13" s="182"/>
       <c r="Q13" s="182"/>
       <c r="R13" s="183"/>
-      <c r="S13" s="242" t="s">
+      <c r="S13" s="245" t="s">
         <v>305</v>
       </c>
-      <c r="T13" s="243"/>
-      <c r="U13" s="243"/>
-      <c r="V13" s="243"/>
-      <c r="W13" s="243"/>
-      <c r="X13" s="243"/>
-      <c r="Y13" s="243"/>
-      <c r="Z13" s="243"/>
-      <c r="AA13" s="243"/>
-      <c r="AB13" s="243"/>
-      <c r="AC13" s="243"/>
-      <c r="AD13" s="243"/>
-      <c r="AE13" s="243"/>
-      <c r="AF13" s="243"/>
-      <c r="AG13" s="243"/>
-      <c r="AH13" s="243"/>
-      <c r="AI13" s="243"/>
-      <c r="AJ13" s="243"/>
-      <c r="AK13" s="243"/>
-      <c r="AL13" s="243"/>
-      <c r="AM13" s="243"/>
-      <c r="AN13" s="243"/>
-      <c r="AO13" s="243"/>
-      <c r="AP13" s="243"/>
-      <c r="AQ13" s="243"/>
-      <c r="AR13" s="244"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="246"/>
+      <c r="AH13" s="246"/>
+      <c r="AI13" s="246"/>
+      <c r="AJ13" s="246"/>
+      <c r="AK13" s="246"/>
+      <c r="AL13" s="246"/>
+      <c r="AM13" s="246"/>
+      <c r="AN13" s="246"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="247"/>
       <c r="AS13" s="176" t="s">
         <v>306</v>
       </c>
@@ -14577,8 +14582,8 @@
     </row>
     <row r="14" spans="1:62" ht="30" customHeight="1">
       <c r="A14" s="51"/>
-      <c r="B14" s="245"/>
-      <c r="C14" s="245"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="248"/>
       <c r="D14" s="181" t="s">
         <v>307</v>
       </c>
@@ -14596,34 +14601,34 @@
       <c r="P14" s="182"/>
       <c r="Q14" s="182"/>
       <c r="R14" s="183"/>
-      <c r="S14" s="242" t="s">
+      <c r="S14" s="245" t="s">
         <v>308</v>
       </c>
-      <c r="T14" s="243"/>
-      <c r="U14" s="243"/>
-      <c r="V14" s="243"/>
-      <c r="W14" s="243"/>
-      <c r="X14" s="243"/>
-      <c r="Y14" s="243"/>
-      <c r="Z14" s="243"/>
-      <c r="AA14" s="243"/>
-      <c r="AB14" s="243"/>
-      <c r="AC14" s="243"/>
-      <c r="AD14" s="243"/>
-      <c r="AE14" s="243"/>
-      <c r="AF14" s="243"/>
-      <c r="AG14" s="243"/>
-      <c r="AH14" s="243"/>
-      <c r="AI14" s="243"/>
-      <c r="AJ14" s="243"/>
-      <c r="AK14" s="243"/>
-      <c r="AL14" s="243"/>
-      <c r="AM14" s="243"/>
-      <c r="AN14" s="243"/>
-      <c r="AO14" s="243"/>
-      <c r="AP14" s="243"/>
-      <c r="AQ14" s="243"/>
-      <c r="AR14" s="244"/>
+      <c r="T14" s="246"/>
+      <c r="U14" s="246"/>
+      <c r="V14" s="246"/>
+      <c r="W14" s="246"/>
+      <c r="X14" s="246"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="246"/>
+      <c r="AH14" s="246"/>
+      <c r="AI14" s="246"/>
+      <c r="AJ14" s="246"/>
+      <c r="AK14" s="246"/>
+      <c r="AL14" s="246"/>
+      <c r="AM14" s="246"/>
+      <c r="AN14" s="246"/>
+      <c r="AO14" s="246"/>
+      <c r="AP14" s="246"/>
+      <c r="AQ14" s="246"/>
+      <c r="AR14" s="247"/>
       <c r="AS14" s="176" t="s">
         <v>306</v>
       </c>
@@ -14725,7 +14730,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B6:C10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:R5"/>
     <mergeCell ref="D6:R6"/>
@@ -14735,15 +14739,12 @@
     <mergeCell ref="S6:AR6"/>
     <mergeCell ref="D7:R7"/>
     <mergeCell ref="S7:AR7"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="AS10:AY10"/>
-    <mergeCell ref="AZ10:BG10"/>
-    <mergeCell ref="S10:AR10"/>
-    <mergeCell ref="AZ8:BG8"/>
     <mergeCell ref="D8:R8"/>
     <mergeCell ref="D9:R9"/>
     <mergeCell ref="S8:AR8"/>
     <mergeCell ref="S9:AR9"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="D10:R10"/>
     <mergeCell ref="S13:AR13"/>
     <mergeCell ref="AZ7:BG7"/>
     <mergeCell ref="AS5:AY5"/>
@@ -14752,6 +14753,10 @@
     <mergeCell ref="AS6:AY6"/>
     <mergeCell ref="AZ9:BG9"/>
     <mergeCell ref="AS8:AY8"/>
+    <mergeCell ref="AZ10:BG10"/>
+    <mergeCell ref="S10:AR10"/>
+    <mergeCell ref="AZ8:BG8"/>
+    <mergeCell ref="AS10:AY10"/>
     <mergeCell ref="S14:AR14"/>
     <mergeCell ref="AZ13:BG13"/>
     <mergeCell ref="B11:C14"/>
@@ -14875,120 +14880,120 @@
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1">
       <c r="A5" s="51"/>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="260" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="259"/>
-      <c r="L5" s="257" t="s">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="260" t="s">
         <v>312</v>
       </c>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="224" t="s">
+      <c r="M5" s="261"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="261"/>
+      <c r="Q5" s="261"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="261"/>
+      <c r="U5" s="261"/>
+      <c r="V5" s="261"/>
+      <c r="W5" s="261"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="221" t="s">
         <v>313</v>
       </c>
-      <c r="AD5" s="225"/>
-      <c r="AE5" s="225"/>
-      <c r="AF5" s="225"/>
-      <c r="AG5" s="225"/>
-      <c r="AH5" s="225"/>
-      <c r="AI5" s="225"/>
-      <c r="AJ5" s="225"/>
-      <c r="AK5" s="225"/>
-      <c r="AL5" s="225"/>
-      <c r="AM5" s="225"/>
-      <c r="AN5" s="225"/>
-      <c r="AO5" s="225"/>
-      <c r="AP5" s="225"/>
-      <c r="AQ5" s="225"/>
-      <c r="AR5" s="225"/>
-      <c r="AS5" s="225"/>
-      <c r="AT5" s="225"/>
-      <c r="AU5" s="225"/>
-      <c r="AV5" s="225"/>
-      <c r="AW5" s="225"/>
-      <c r="AX5" s="226"/>
+      <c r="AD5" s="222"/>
+      <c r="AE5" s="222"/>
+      <c r="AF5" s="222"/>
+      <c r="AG5" s="222"/>
+      <c r="AH5" s="222"/>
+      <c r="AI5" s="222"/>
+      <c r="AJ5" s="222"/>
+      <c r="AK5" s="222"/>
+      <c r="AL5" s="222"/>
+      <c r="AM5" s="222"/>
+      <c r="AN5" s="222"/>
+      <c r="AO5" s="222"/>
+      <c r="AP5" s="222"/>
+      <c r="AQ5" s="222"/>
+      <c r="AR5" s="222"/>
+      <c r="AS5" s="222"/>
+      <c r="AT5" s="222"/>
+      <c r="AU5" s="222"/>
+      <c r="AV5" s="222"/>
+      <c r="AW5" s="222"/>
+      <c r="AX5" s="235"/>
       <c r="BA5" s="52"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1">
       <c r="A6" s="51"/>
-      <c r="B6" s="260"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="261"/>
-      <c r="Z6" s="261"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="224" t="s">
+      <c r="B6" s="263"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="264"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="264"/>
+      <c r="Q6" s="264"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="264"/>
+      <c r="U6" s="264"/>
+      <c r="V6" s="264"/>
+      <c r="W6" s="264"/>
+      <c r="X6" s="264"/>
+      <c r="Y6" s="264"/>
+      <c r="Z6" s="264"/>
+      <c r="AA6" s="264"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="221" t="s">
         <v>314</v>
       </c>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="225"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="226"/>
-      <c r="AJ6" s="224" t="s">
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="222"/>
+      <c r="AF6" s="222"/>
+      <c r="AG6" s="222"/>
+      <c r="AH6" s="222"/>
+      <c r="AI6" s="235"/>
+      <c r="AJ6" s="221" t="s">
         <v>315</v>
       </c>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="225"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="225"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="224" t="s">
+      <c r="AK6" s="222"/>
+      <c r="AL6" s="222"/>
+      <c r="AM6" s="222"/>
+      <c r="AN6" s="222"/>
+      <c r="AO6" s="222"/>
+      <c r="AP6" s="235"/>
+      <c r="AQ6" s="221" t="s">
         <v>316</v>
       </c>
-      <c r="AR6" s="225"/>
-      <c r="AS6" s="225"/>
-      <c r="AT6" s="225"/>
-      <c r="AU6" s="225"/>
-      <c r="AV6" s="225"/>
-      <c r="AW6" s="225"/>
-      <c r="AX6" s="226"/>
+      <c r="AR6" s="222"/>
+      <c r="AS6" s="222"/>
+      <c r="AT6" s="222"/>
+      <c r="AU6" s="222"/>
+      <c r="AV6" s="222"/>
+      <c r="AW6" s="222"/>
+      <c r="AX6" s="235"/>
       <c r="BA6" s="52"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1">
@@ -15329,40 +15334,40 @@
       <c r="R17" s="145"/>
       <c r="S17" s="145"/>
       <c r="T17" s="146"/>
-      <c r="U17" s="224" t="s">
+      <c r="U17" s="221" t="s">
         <v>332</v>
       </c>
-      <c r="V17" s="225"/>
-      <c r="W17" s="225"/>
-      <c r="X17" s="225"/>
-      <c r="Y17" s="225"/>
-      <c r="Z17" s="225"/>
-      <c r="AA17" s="225"/>
-      <c r="AB17" s="225"/>
-      <c r="AC17" s="225"/>
-      <c r="AD17" s="225"/>
-      <c r="AE17" s="225"/>
-      <c r="AF17" s="225"/>
-      <c r="AG17" s="225"/>
-      <c r="AH17" s="225"/>
-      <c r="AI17" s="225"/>
-      <c r="AJ17" s="225"/>
-      <c r="AK17" s="225"/>
-      <c r="AL17" s="225"/>
-      <c r="AM17" s="225"/>
-      <c r="AN17" s="225"/>
-      <c r="AO17" s="225"/>
-      <c r="AP17" s="225"/>
-      <c r="AQ17" s="225"/>
-      <c r="AR17" s="225"/>
-      <c r="AS17" s="225"/>
-      <c r="AT17" s="225"/>
-      <c r="AU17" s="225"/>
-      <c r="AV17" s="225"/>
-      <c r="AW17" s="225"/>
-      <c r="AX17" s="225"/>
-      <c r="AY17" s="225"/>
-      <c r="AZ17" s="226"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="222"/>
+      <c r="AG17" s="222"/>
+      <c r="AH17" s="222"/>
+      <c r="AI17" s="222"/>
+      <c r="AJ17" s="222"/>
+      <c r="AK17" s="222"/>
+      <c r="AL17" s="222"/>
+      <c r="AM17" s="222"/>
+      <c r="AN17" s="222"/>
+      <c r="AO17" s="222"/>
+      <c r="AP17" s="222"/>
+      <c r="AQ17" s="222"/>
+      <c r="AR17" s="222"/>
+      <c r="AS17" s="222"/>
+      <c r="AT17" s="222"/>
+      <c r="AU17" s="222"/>
+      <c r="AV17" s="222"/>
+      <c r="AW17" s="222"/>
+      <c r="AX17" s="222"/>
+      <c r="AY17" s="222"/>
+      <c r="AZ17" s="235"/>
       <c r="BA17" s="52"/>
     </row>
     <row r="18" spans="1:53" ht="18" customHeight="1">
@@ -16065,43 +16070,43 @@
       <c r="S10" s="174"/>
       <c r="T10" s="174"/>
       <c r="U10" s="174"/>
-      <c r="V10" s="224" t="s">
+      <c r="V10" s="221" t="s">
         <v>346</v>
       </c>
-      <c r="W10" s="225"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="225"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="225"/>
-      <c r="AB10" s="225"/>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="225"/>
-      <c r="AF10" s="225"/>
-      <c r="AG10" s="225"/>
-      <c r="AH10" s="225"/>
-      <c r="AI10" s="226"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="222"/>
+      <c r="AG10" s="222"/>
+      <c r="AH10" s="222"/>
+      <c r="AI10" s="235"/>
       <c r="AJ10" s="174" t="s">
         <v>347</v>
       </c>
       <c r="AK10" s="174"/>
       <c r="AL10" s="174"/>
       <c r="AM10" s="174"/>
-      <c r="AN10" s="224" t="s">
+      <c r="AN10" s="221" t="s">
         <v>348</v>
       </c>
-      <c r="AO10" s="225"/>
-      <c r="AP10" s="225"/>
-      <c r="AQ10" s="225"/>
-      <c r="AR10" s="225"/>
-      <c r="AS10" s="225"/>
-      <c r="AT10" s="225"/>
-      <c r="AU10" s="225"/>
-      <c r="AV10" s="225"/>
-      <c r="AW10" s="225"/>
-      <c r="AX10" s="225"/>
-      <c r="AY10" s="225"/>
-      <c r="AZ10" s="226"/>
+      <c r="AO10" s="222"/>
+      <c r="AP10" s="222"/>
+      <c r="AQ10" s="222"/>
+      <c r="AR10" s="222"/>
+      <c r="AS10" s="222"/>
+      <c r="AT10" s="222"/>
+      <c r="AU10" s="222"/>
+      <c r="AV10" s="222"/>
+      <c r="AW10" s="222"/>
+      <c r="AX10" s="222"/>
+      <c r="AY10" s="222"/>
+      <c r="AZ10" s="235"/>
       <c r="BA10" s="52"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1">
@@ -16439,19 +16444,19 @@
       <c r="AK17" s="179"/>
       <c r="AL17" s="179"/>
       <c r="AM17" s="180"/>
-      <c r="AN17" s="266"/>
-      <c r="AO17" s="267"/>
-      <c r="AP17" s="267"/>
-      <c r="AQ17" s="267"/>
-      <c r="AR17" s="267"/>
-      <c r="AS17" s="267"/>
-      <c r="AT17" s="267"/>
-      <c r="AU17" s="267"/>
-      <c r="AV17" s="267"/>
-      <c r="AW17" s="267"/>
-      <c r="AX17" s="267"/>
-      <c r="AY17" s="267"/>
-      <c r="AZ17" s="268"/>
+      <c r="AN17" s="269"/>
+      <c r="AO17" s="270"/>
+      <c r="AP17" s="270"/>
+      <c r="AQ17" s="270"/>
+      <c r="AR17" s="270"/>
+      <c r="AS17" s="270"/>
+      <c r="AT17" s="270"/>
+      <c r="AU17" s="270"/>
+      <c r="AV17" s="270"/>
+      <c r="AW17" s="270"/>
+      <c r="AX17" s="270"/>
+      <c r="AY17" s="270"/>
+      <c r="AZ17" s="271"/>
       <c r="BA17" s="52"/>
     </row>
     <row r="18" spans="1:53" ht="18" customHeight="1">
@@ -16498,19 +16503,19 @@
       <c r="AK18" s="185"/>
       <c r="AL18" s="185"/>
       <c r="AM18" s="186"/>
-      <c r="AN18" s="263"/>
-      <c r="AO18" s="264"/>
-      <c r="AP18" s="264"/>
-      <c r="AQ18" s="264"/>
-      <c r="AR18" s="264"/>
-      <c r="AS18" s="264"/>
-      <c r="AT18" s="264"/>
-      <c r="AU18" s="264"/>
-      <c r="AV18" s="264"/>
-      <c r="AW18" s="264"/>
-      <c r="AX18" s="264"/>
-      <c r="AY18" s="264"/>
-      <c r="AZ18" s="265"/>
+      <c r="AN18" s="266"/>
+      <c r="AO18" s="267"/>
+      <c r="AP18" s="267"/>
+      <c r="AQ18" s="267"/>
+      <c r="AR18" s="267"/>
+      <c r="AS18" s="267"/>
+      <c r="AT18" s="267"/>
+      <c r="AU18" s="267"/>
+      <c r="AV18" s="267"/>
+      <c r="AW18" s="267"/>
+      <c r="AX18" s="267"/>
+      <c r="AY18" s="267"/>
+      <c r="AZ18" s="268"/>
       <c r="BA18" s="52"/>
     </row>
     <row r="19" spans="1:53" ht="18" customHeight="1">
@@ -16557,19 +16562,19 @@
       <c r="AK19" s="185"/>
       <c r="AL19" s="185"/>
       <c r="AM19" s="186"/>
-      <c r="AN19" s="263"/>
-      <c r="AO19" s="264"/>
-      <c r="AP19" s="264"/>
-      <c r="AQ19" s="264"/>
-      <c r="AR19" s="264"/>
-      <c r="AS19" s="264"/>
-      <c r="AT19" s="264"/>
-      <c r="AU19" s="264"/>
-      <c r="AV19" s="264"/>
-      <c r="AW19" s="264"/>
-      <c r="AX19" s="264"/>
-      <c r="AY19" s="264"/>
-      <c r="AZ19" s="265"/>
+      <c r="AN19" s="266"/>
+      <c r="AO19" s="267"/>
+      <c r="AP19" s="267"/>
+      <c r="AQ19" s="267"/>
+      <c r="AR19" s="267"/>
+      <c r="AS19" s="267"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="267"/>
+      <c r="AX19" s="267"/>
+      <c r="AY19" s="267"/>
+      <c r="AZ19" s="268"/>
       <c r="BA19" s="52"/>
     </row>
     <row r="20" spans="1:53" ht="18" customHeight="1">
@@ -16616,19 +16621,19 @@
       <c r="AK20" s="185"/>
       <c r="AL20" s="185"/>
       <c r="AM20" s="186"/>
-      <c r="AN20" s="263"/>
-      <c r="AO20" s="264"/>
-      <c r="AP20" s="264"/>
-      <c r="AQ20" s="264"/>
-      <c r="AR20" s="264"/>
-      <c r="AS20" s="264"/>
-      <c r="AT20" s="264"/>
-      <c r="AU20" s="264"/>
-      <c r="AV20" s="264"/>
-      <c r="AW20" s="264"/>
-      <c r="AX20" s="264"/>
-      <c r="AY20" s="264"/>
-      <c r="AZ20" s="265"/>
+      <c r="AN20" s="266"/>
+      <c r="AO20" s="267"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="267"/>
+      <c r="AS20" s="267"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="267"/>
+      <c r="AX20" s="267"/>
+      <c r="AY20" s="267"/>
+      <c r="AZ20" s="268"/>
       <c r="BA20" s="52"/>
     </row>
     <row r="21" spans="1:53" ht="18" customHeight="1">
@@ -16675,19 +16680,19 @@
       <c r="AK21" s="185"/>
       <c r="AL21" s="185"/>
       <c r="AM21" s="186"/>
-      <c r="AN21" s="263"/>
-      <c r="AO21" s="264"/>
-      <c r="AP21" s="264"/>
-      <c r="AQ21" s="264"/>
-      <c r="AR21" s="264"/>
-      <c r="AS21" s="264"/>
-      <c r="AT21" s="264"/>
-      <c r="AU21" s="264"/>
-      <c r="AV21" s="264"/>
-      <c r="AW21" s="264"/>
-      <c r="AX21" s="264"/>
-      <c r="AY21" s="264"/>
-      <c r="AZ21" s="265"/>
+      <c r="AN21" s="266"/>
+      <c r="AO21" s="267"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="267"/>
+      <c r="AS21" s="267"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="267"/>
+      <c r="AX21" s="267"/>
+      <c r="AY21" s="267"/>
+      <c r="AZ21" s="268"/>
       <c r="BA21" s="52"/>
     </row>
     <row r="22" spans="1:53" ht="18" customHeight="1">
@@ -17305,42 +17310,42 @@
       <c r="R10" s="174"/>
       <c r="S10" s="174"/>
       <c r="T10" s="174"/>
-      <c r="U10" s="257" t="s">
+      <c r="U10" s="260" t="s">
         <v>394</v>
       </c>
-      <c r="V10" s="258"/>
-      <c r="W10" s="258"/>
-      <c r="X10" s="258"/>
-      <c r="Y10" s="258"/>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="258"/>
-      <c r="AB10" s="258"/>
-      <c r="AC10" s="258"/>
-      <c r="AD10" s="258"/>
-      <c r="AE10" s="258"/>
-      <c r="AF10" s="258"/>
-      <c r="AG10" s="258"/>
-      <c r="AH10" s="258"/>
-      <c r="AI10" s="258"/>
-      <c r="AJ10" s="259"/>
-      <c r="AK10" s="257" t="s">
+      <c r="V10" s="261"/>
+      <c r="W10" s="261"/>
+      <c r="X10" s="261"/>
+      <c r="Y10" s="261"/>
+      <c r="Z10" s="261"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="261"/>
+      <c r="AD10" s="261"/>
+      <c r="AE10" s="261"/>
+      <c r="AF10" s="261"/>
+      <c r="AG10" s="261"/>
+      <c r="AH10" s="261"/>
+      <c r="AI10" s="261"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="260" t="s">
         <v>395</v>
       </c>
-      <c r="AL10" s="258"/>
-      <c r="AM10" s="258"/>
-      <c r="AN10" s="258"/>
-      <c r="AO10" s="258"/>
-      <c r="AP10" s="258"/>
-      <c r="AQ10" s="258"/>
-      <c r="AR10" s="258"/>
-      <c r="AS10" s="258"/>
-      <c r="AT10" s="258"/>
-      <c r="AU10" s="258"/>
-      <c r="AV10" s="258"/>
-      <c r="AW10" s="258"/>
-      <c r="AX10" s="258"/>
-      <c r="AY10" s="258"/>
-      <c r="AZ10" s="259"/>
+      <c r="AL10" s="261"/>
+      <c r="AM10" s="261"/>
+      <c r="AN10" s="261"/>
+      <c r="AO10" s="261"/>
+      <c r="AP10" s="261"/>
+      <c r="AQ10" s="261"/>
+      <c r="AR10" s="261"/>
+      <c r="AS10" s="261"/>
+      <c r="AT10" s="261"/>
+      <c r="AU10" s="261"/>
+      <c r="AV10" s="261"/>
+      <c r="AW10" s="261"/>
+      <c r="AX10" s="261"/>
+      <c r="AY10" s="261"/>
+      <c r="AZ10" s="262"/>
       <c r="BA10" s="52"/>
     </row>
     <row r="11" spans="1:53">
@@ -17364,38 +17369,38 @@
       <c r="R11" s="174"/>
       <c r="S11" s="174"/>
       <c r="T11" s="174"/>
-      <c r="U11" s="260"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="261"/>
-      <c r="AG11" s="261"/>
-      <c r="AH11" s="261"/>
-      <c r="AI11" s="261"/>
-      <c r="AJ11" s="262"/>
-      <c r="AK11" s="260"/>
-      <c r="AL11" s="261"/>
-      <c r="AM11" s="261"/>
-      <c r="AN11" s="261"/>
-      <c r="AO11" s="261"/>
-      <c r="AP11" s="261"/>
-      <c r="AQ11" s="261"/>
-      <c r="AR11" s="261"/>
-      <c r="AS11" s="261"/>
-      <c r="AT11" s="261"/>
-      <c r="AU11" s="261"/>
-      <c r="AV11" s="261"/>
-      <c r="AW11" s="261"/>
-      <c r="AX11" s="261"/>
-      <c r="AY11" s="261"/>
-      <c r="AZ11" s="262"/>
+      <c r="U11" s="263"/>
+      <c r="V11" s="264"/>
+      <c r="W11" s="264"/>
+      <c r="X11" s="264"/>
+      <c r="Y11" s="264"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="264"/>
+      <c r="AB11" s="264"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="264"/>
+      <c r="AE11" s="264"/>
+      <c r="AF11" s="264"/>
+      <c r="AG11" s="264"/>
+      <c r="AH11" s="264"/>
+      <c r="AI11" s="264"/>
+      <c r="AJ11" s="265"/>
+      <c r="AK11" s="263"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="264"/>
+      <c r="AN11" s="264"/>
+      <c r="AO11" s="264"/>
+      <c r="AP11" s="264"/>
+      <c r="AQ11" s="264"/>
+      <c r="AR11" s="264"/>
+      <c r="AS11" s="264"/>
+      <c r="AT11" s="264"/>
+      <c r="AU11" s="264"/>
+      <c r="AV11" s="264"/>
+      <c r="AW11" s="264"/>
+      <c r="AX11" s="264"/>
+      <c r="AY11" s="264"/>
+      <c r="AZ11" s="265"/>
       <c r="BA11" s="52"/>
     </row>
     <row r="12" spans="1:53" ht="60" customHeight="1">
@@ -17403,28 +17408,28 @@
       <c r="B12" s="81">
         <v>1</v>
       </c>
-      <c r="C12" s="269" t="s">
+      <c r="C12" s="272" t="s">
         <v>396</v>
       </c>
-      <c r="D12" s="269"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="269"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="269"/>
-      <c r="J12" s="270" t="s">
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="272"/>
+      <c r="J12" s="273" t="s">
         <v>397</v>
       </c>
-      <c r="K12" s="270"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="270"/>
+      <c r="K12" s="273"/>
+      <c r="L12" s="273"/>
+      <c r="M12" s="273"/>
+      <c r="N12" s="273"/>
+      <c r="O12" s="273"/>
+      <c r="P12" s="273"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="273"/>
+      <c r="S12" s="273"/>
+      <c r="T12" s="273"/>
       <c r="U12" s="196" t="s">
         <v>398</v>
       </c>
@@ -17468,28 +17473,28 @@
       <c r="B13" s="81">
         <v>2</v>
       </c>
-      <c r="C13" s="269" t="s">
+      <c r="C13" s="272" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="269"/>
-      <c r="H13" s="269"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269" t="s">
+      <c r="D13" s="272"/>
+      <c r="E13" s="272"/>
+      <c r="F13" s="272"/>
+      <c r="G13" s="272"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="272"/>
+      <c r="J13" s="272" t="s">
         <v>401</v>
       </c>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="269"/>
-      <c r="Q13" s="269"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="269"/>
-      <c r="T13" s="269"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="272"/>
+      <c r="M13" s="272"/>
+      <c r="N13" s="272"/>
+      <c r="O13" s="272"/>
+      <c r="P13" s="272"/>
+      <c r="Q13" s="272"/>
+      <c r="R13" s="272"/>
+      <c r="S13" s="272"/>
+      <c r="T13" s="272"/>
       <c r="U13" s="196" t="s">
         <v>402</v>
       </c>
@@ -17533,28 +17538,28 @@
       <c r="B14" s="81">
         <v>3</v>
       </c>
-      <c r="C14" s="269" t="s">
+      <c r="C14" s="272" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="269"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="269"/>
-      <c r="H14" s="269"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="270" t="s">
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="272"/>
+      <c r="I14" s="272"/>
+      <c r="J14" s="273" t="s">
         <v>403</v>
       </c>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270"/>
-      <c r="N14" s="270"/>
-      <c r="O14" s="270"/>
-      <c r="P14" s="270"/>
-      <c r="Q14" s="270"/>
-      <c r="R14" s="270"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="270"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="273"/>
+      <c r="N14" s="273"/>
+      <c r="O14" s="273"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="273"/>
+      <c r="R14" s="273"/>
+      <c r="S14" s="273"/>
+      <c r="T14" s="273"/>
       <c r="U14" s="196" t="s">
         <v>404</v>
       </c>
@@ -17777,51 +17782,51 @@
       <c r="K19" s="174"/>
       <c r="L19" s="174"/>
       <c r="M19" s="174"/>
-      <c r="N19" s="246" t="s">
+      <c r="N19" s="249" t="s">
         <v>407</v>
       </c>
-      <c r="O19" s="246"/>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="257" t="s">
+      <c r="O19" s="249"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="249"/>
+      <c r="R19" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="258"/>
-      <c r="W19" s="258"/>
-      <c r="X19" s="258"/>
-      <c r="Y19" s="258"/>
-      <c r="Z19" s="258"/>
-      <c r="AA19" s="258"/>
-      <c r="AB19" s="258"/>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="258"/>
-      <c r="AE19" s="258"/>
-      <c r="AF19" s="258"/>
-      <c r="AG19" s="258"/>
-      <c r="AH19" s="258"/>
-      <c r="AI19" s="258"/>
-      <c r="AJ19" s="258"/>
-      <c r="AK19" s="258"/>
-      <c r="AL19" s="258"/>
-      <c r="AM19" s="258"/>
-      <c r="AN19" s="258"/>
-      <c r="AO19" s="258"/>
-      <c r="AP19" s="259"/>
-      <c r="AQ19" s="257" t="s">
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
+      <c r="AE19" s="261"/>
+      <c r="AF19" s="261"/>
+      <c r="AG19" s="261"/>
+      <c r="AH19" s="261"/>
+      <c r="AI19" s="261"/>
+      <c r="AJ19" s="261"/>
+      <c r="AK19" s="261"/>
+      <c r="AL19" s="261"/>
+      <c r="AM19" s="261"/>
+      <c r="AN19" s="261"/>
+      <c r="AO19" s="261"/>
+      <c r="AP19" s="262"/>
+      <c r="AQ19" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="AR19" s="258"/>
-      <c r="AS19" s="258"/>
-      <c r="AT19" s="258"/>
-      <c r="AU19" s="258"/>
-      <c r="AV19" s="258"/>
-      <c r="AW19" s="258"/>
-      <c r="AX19" s="258"/>
-      <c r="AY19" s="258"/>
-      <c r="AZ19" s="259"/>
+      <c r="AR19" s="261"/>
+      <c r="AS19" s="261"/>
+      <c r="AT19" s="261"/>
+      <c r="AU19" s="261"/>
+      <c r="AV19" s="261"/>
+      <c r="AW19" s="261"/>
+      <c r="AX19" s="261"/>
+      <c r="AY19" s="261"/>
+      <c r="AZ19" s="262"/>
       <c r="BA19" s="52"/>
     </row>
     <row r="20" spans="1:53" ht="18" customHeight="1">
@@ -17838,45 +17843,45 @@
       <c r="K20" s="174"/>
       <c r="L20" s="174"/>
       <c r="M20" s="174"/>
-      <c r="N20" s="246"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="261"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="261"/>
-      <c r="X20" s="261"/>
-      <c r="Y20" s="261"/>
-      <c r="Z20" s="261"/>
-      <c r="AA20" s="261"/>
-      <c r="AB20" s="261"/>
-      <c r="AC20" s="261"/>
-      <c r="AD20" s="261"/>
-      <c r="AE20" s="261"/>
-      <c r="AF20" s="261"/>
-      <c r="AG20" s="261"/>
-      <c r="AH20" s="261"/>
-      <c r="AI20" s="261"/>
-      <c r="AJ20" s="261"/>
-      <c r="AK20" s="261"/>
-      <c r="AL20" s="261"/>
-      <c r="AM20" s="261"/>
-      <c r="AN20" s="261"/>
-      <c r="AO20" s="261"/>
-      <c r="AP20" s="262"/>
-      <c r="AQ20" s="260"/>
-      <c r="AR20" s="261"/>
-      <c r="AS20" s="261"/>
-      <c r="AT20" s="261"/>
-      <c r="AU20" s="261"/>
-      <c r="AV20" s="261"/>
-      <c r="AW20" s="261"/>
-      <c r="AX20" s="261"/>
-      <c r="AY20" s="261"/>
-      <c r="AZ20" s="262"/>
+      <c r="N20" s="249"/>
+      <c r="O20" s="249"/>
+      <c r="P20" s="249"/>
+      <c r="Q20" s="249"/>
+      <c r="R20" s="263"/>
+      <c r="S20" s="264"/>
+      <c r="T20" s="264"/>
+      <c r="U20" s="264"/>
+      <c r="V20" s="264"/>
+      <c r="W20" s="264"/>
+      <c r="X20" s="264"/>
+      <c r="Y20" s="264"/>
+      <c r="Z20" s="264"/>
+      <c r="AA20" s="264"/>
+      <c r="AB20" s="264"/>
+      <c r="AC20" s="264"/>
+      <c r="AD20" s="264"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="264"/>
+      <c r="AG20" s="264"/>
+      <c r="AH20" s="264"/>
+      <c r="AI20" s="264"/>
+      <c r="AJ20" s="264"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="264"/>
+      <c r="AN20" s="264"/>
+      <c r="AO20" s="264"/>
+      <c r="AP20" s="265"/>
+      <c r="AQ20" s="263"/>
+      <c r="AR20" s="264"/>
+      <c r="AS20" s="264"/>
+      <c r="AT20" s="264"/>
+      <c r="AU20" s="264"/>
+      <c r="AV20" s="264"/>
+      <c r="AW20" s="264"/>
+      <c r="AX20" s="264"/>
+      <c r="AY20" s="264"/>
+      <c r="AZ20" s="265"/>
       <c r="BA20" s="52"/>
     </row>
     <row r="21" spans="1:53" ht="40.5" customHeight="1">
@@ -18008,56 +18013,56 @@
     <row r="23" spans="1:53" ht="12" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
-      <c r="I23" s="271"/>
-      <c r="J23" s="271"/>
-      <c r="K23" s="271"/>
-      <c r="L23" s="271"/>
-      <c r="M23" s="271"/>
-      <c r="N23" s="271"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="271"/>
-      <c r="Q23" s="271"/>
-      <c r="R23" s="271"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="271"/>
-      <c r="U23" s="271"/>
-      <c r="V23" s="271"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
-      <c r="AI23" s="271"/>
-      <c r="AJ23" s="271"/>
-      <c r="AK23" s="271"/>
-      <c r="AL23" s="271"/>
-      <c r="AM23" s="271"/>
-      <c r="AN23" s="271"/>
-      <c r="AO23" s="271"/>
-      <c r="AP23" s="271"/>
-      <c r="AQ23" s="271"/>
-      <c r="AR23" s="271"/>
-      <c r="AS23" s="271"/>
-      <c r="AT23" s="271"/>
-      <c r="AU23" s="271"/>
-      <c r="AV23" s="271"/>
-      <c r="AW23" s="271"/>
-      <c r="AX23" s="271"/>
-      <c r="AY23" s="271"/>
-      <c r="AZ23" s="271"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="274"/>
+      <c r="L23" s="274"/>
+      <c r="M23" s="274"/>
+      <c r="N23" s="274"/>
+      <c r="O23" s="274"/>
+      <c r="P23" s="274"/>
+      <c r="Q23" s="274"/>
+      <c r="R23" s="274"/>
+      <c r="S23" s="274"/>
+      <c r="T23" s="274"/>
+      <c r="U23" s="274"/>
+      <c r="V23" s="274"/>
+      <c r="W23" s="274"/>
+      <c r="X23" s="274"/>
+      <c r="Y23" s="274"/>
+      <c r="Z23" s="274"/>
+      <c r="AA23" s="274"/>
+      <c r="AB23" s="274"/>
+      <c r="AC23" s="274"/>
+      <c r="AD23" s="274"/>
+      <c r="AE23" s="274"/>
+      <c r="AF23" s="274"/>
+      <c r="AG23" s="274"/>
+      <c r="AH23" s="274"/>
+      <c r="AI23" s="274"/>
+      <c r="AJ23" s="274"/>
+      <c r="AK23" s="274"/>
+      <c r="AL23" s="274"/>
+      <c r="AM23" s="274"/>
+      <c r="AN23" s="274"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="274"/>
+      <c r="AS23" s="274"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="274"/>
+      <c r="AX23" s="274"/>
+      <c r="AY23" s="274"/>
+      <c r="AZ23" s="274"/>
       <c r="BA23" s="56"/>
     </row>
   </sheetData>
@@ -18333,51 +18338,51 @@
       <c r="I18" s="174"/>
       <c r="J18" s="174"/>
       <c r="K18" s="174"/>
-      <c r="L18" s="272" t="s">
+      <c r="L18" s="275" t="s">
         <v>422</v>
       </c>
-      <c r="M18" s="273"/>
-      <c r="N18" s="273"/>
-      <c r="O18" s="273"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="273"/>
-      <c r="R18" s="273"/>
-      <c r="S18" s="273"/>
-      <c r="T18" s="273"/>
-      <c r="U18" s="273"/>
-      <c r="V18" s="273"/>
-      <c r="W18" s="273"/>
-      <c r="X18" s="273"/>
-      <c r="Y18" s="273"/>
-      <c r="Z18" s="273"/>
-      <c r="AA18" s="273"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="274"/>
-      <c r="AD18" s="257" t="s">
+      <c r="M18" s="276"/>
+      <c r="N18" s="276"/>
+      <c r="O18" s="276"/>
+      <c r="P18" s="276"/>
+      <c r="Q18" s="276"/>
+      <c r="R18" s="276"/>
+      <c r="S18" s="276"/>
+      <c r="T18" s="276"/>
+      <c r="U18" s="276"/>
+      <c r="V18" s="276"/>
+      <c r="W18" s="276"/>
+      <c r="X18" s="276"/>
+      <c r="Y18" s="276"/>
+      <c r="Z18" s="276"/>
+      <c r="AA18" s="276"/>
+      <c r="AB18" s="276"/>
+      <c r="AC18" s="277"/>
+      <c r="AD18" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="AE18" s="258"/>
-      <c r="AF18" s="258"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="258"/>
-      <c r="AJ18" s="258"/>
-      <c r="AK18" s="258"/>
-      <c r="AL18" s="258"/>
-      <c r="AM18" s="258"/>
-      <c r="AN18" s="258"/>
-      <c r="AO18" s="258"/>
-      <c r="AP18" s="258"/>
-      <c r="AQ18" s="258"/>
-      <c r="AR18" s="258"/>
-      <c r="AS18" s="258"/>
-      <c r="AT18" s="258"/>
-      <c r="AU18" s="258"/>
-      <c r="AV18" s="258"/>
-      <c r="AW18" s="258"/>
-      <c r="AX18" s="258"/>
-      <c r="AY18" s="258"/>
-      <c r="AZ18" s="259"/>
+      <c r="AE18" s="261"/>
+      <c r="AF18" s="261"/>
+      <c r="AG18" s="261"/>
+      <c r="AH18" s="261"/>
+      <c r="AI18" s="261"/>
+      <c r="AJ18" s="261"/>
+      <c r="AK18" s="261"/>
+      <c r="AL18" s="261"/>
+      <c r="AM18" s="261"/>
+      <c r="AN18" s="261"/>
+      <c r="AO18" s="261"/>
+      <c r="AP18" s="261"/>
+      <c r="AQ18" s="261"/>
+      <c r="AR18" s="261"/>
+      <c r="AS18" s="261"/>
+      <c r="AT18" s="261"/>
+      <c r="AU18" s="261"/>
+      <c r="AV18" s="261"/>
+      <c r="AW18" s="261"/>
+      <c r="AX18" s="261"/>
+      <c r="AY18" s="261"/>
+      <c r="AZ18" s="262"/>
       <c r="BA18" s="52"/>
     </row>
     <row r="19" spans="1:53" ht="18" customHeight="1">
@@ -18392,47 +18397,47 @@
       <c r="I19" s="174"/>
       <c r="J19" s="174"/>
       <c r="K19" s="174"/>
-      <c r="L19" s="275"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="276"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="276"/>
-      <c r="Q19" s="276"/>
-      <c r="R19" s="276"/>
-      <c r="S19" s="276"/>
-      <c r="T19" s="276"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="276"/>
-      <c r="W19" s="276"/>
-      <c r="X19" s="276"/>
-      <c r="Y19" s="276"/>
-      <c r="Z19" s="276"/>
-      <c r="AA19" s="276"/>
-      <c r="AB19" s="276"/>
-      <c r="AC19" s="277"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="261"/>
-      <c r="AG19" s="261"/>
-      <c r="AH19" s="261"/>
-      <c r="AI19" s="261"/>
-      <c r="AJ19" s="261"/>
-      <c r="AK19" s="261"/>
-      <c r="AL19" s="261"/>
-      <c r="AM19" s="261"/>
-      <c r="AN19" s="261"/>
-      <c r="AO19" s="261"/>
-      <c r="AP19" s="261"/>
-      <c r="AQ19" s="261"/>
-      <c r="AR19" s="261"/>
-      <c r="AS19" s="261"/>
-      <c r="AT19" s="261"/>
-      <c r="AU19" s="261"/>
-      <c r="AV19" s="261"/>
-      <c r="AW19" s="261"/>
-      <c r="AX19" s="261"/>
-      <c r="AY19" s="261"/>
-      <c r="AZ19" s="262"/>
+      <c r="L19" s="278"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="279"/>
+      <c r="R19" s="279"/>
+      <c r="S19" s="279"/>
+      <c r="T19" s="279"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="279"/>
+      <c r="X19" s="279"/>
+      <c r="Y19" s="279"/>
+      <c r="Z19" s="279"/>
+      <c r="AA19" s="279"/>
+      <c r="AB19" s="279"/>
+      <c r="AC19" s="280"/>
+      <c r="AD19" s="263"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="264"/>
+      <c r="AN19" s="264"/>
+      <c r="AO19" s="264"/>
+      <c r="AP19" s="264"/>
+      <c r="AQ19" s="264"/>
+      <c r="AR19" s="264"/>
+      <c r="AS19" s="264"/>
+      <c r="AT19" s="264"/>
+      <c r="AU19" s="264"/>
+      <c r="AV19" s="264"/>
+      <c r="AW19" s="264"/>
+      <c r="AX19" s="264"/>
+      <c r="AY19" s="264"/>
+      <c r="AZ19" s="265"/>
       <c r="BA19" s="52"/>
     </row>
     <row r="20" spans="1:53" ht="30.75" customHeight="1">
@@ -18627,56 +18632,56 @@
     <row r="23" spans="1:53" ht="12" customHeight="1">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
-      <c r="E23" s="271"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="271"/>
-      <c r="I23" s="271"/>
-      <c r="J23" s="271"/>
-      <c r="K23" s="271"/>
-      <c r="L23" s="271"/>
-      <c r="M23" s="271"/>
-      <c r="N23" s="271"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="271"/>
-      <c r="Q23" s="271"/>
-      <c r="R23" s="271"/>
-      <c r="S23" s="271"/>
-      <c r="T23" s="271"/>
-      <c r="U23" s="271"/>
-      <c r="V23" s="271"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
-      <c r="AI23" s="271"/>
-      <c r="AJ23" s="271"/>
-      <c r="AK23" s="271"/>
-      <c r="AL23" s="271"/>
-      <c r="AM23" s="271"/>
-      <c r="AN23" s="271"/>
-      <c r="AO23" s="271"/>
-      <c r="AP23" s="271"/>
-      <c r="AQ23" s="271"/>
-      <c r="AR23" s="271"/>
-      <c r="AS23" s="271"/>
-      <c r="AT23" s="271"/>
-      <c r="AU23" s="271"/>
-      <c r="AV23" s="271"/>
-      <c r="AW23" s="271"/>
-      <c r="AX23" s="271"/>
-      <c r="AY23" s="271"/>
-      <c r="AZ23" s="271"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="274"/>
+      <c r="G23" s="274"/>
+      <c r="H23" s="274"/>
+      <c r="I23" s="274"/>
+      <c r="J23" s="274"/>
+      <c r="K23" s="274"/>
+      <c r="L23" s="274"/>
+      <c r="M23" s="274"/>
+      <c r="N23" s="274"/>
+      <c r="O23" s="274"/>
+      <c r="P23" s="274"/>
+      <c r="Q23" s="274"/>
+      <c r="R23" s="274"/>
+      <c r="S23" s="274"/>
+      <c r="T23" s="274"/>
+      <c r="U23" s="274"/>
+      <c r="V23" s="274"/>
+      <c r="W23" s="274"/>
+      <c r="X23" s="274"/>
+      <c r="Y23" s="274"/>
+      <c r="Z23" s="274"/>
+      <c r="AA23" s="274"/>
+      <c r="AB23" s="274"/>
+      <c r="AC23" s="274"/>
+      <c r="AD23" s="274"/>
+      <c r="AE23" s="274"/>
+      <c r="AF23" s="274"/>
+      <c r="AG23" s="274"/>
+      <c r="AH23" s="274"/>
+      <c r="AI23" s="274"/>
+      <c r="AJ23" s="274"/>
+      <c r="AK23" s="274"/>
+      <c r="AL23" s="274"/>
+      <c r="AM23" s="274"/>
+      <c r="AN23" s="274"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="274"/>
+      <c r="AS23" s="274"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="274"/>
+      <c r="AX23" s="274"/>
+      <c r="AY23" s="274"/>
+      <c r="AZ23" s="274"/>
       <c r="BA23" s="56"/>
     </row>
   </sheetData>
